--- a/data/pca/factorExposure/factorExposure_2018-12-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0870042675564564</v>
+        <v>-0.05674593644827677</v>
       </c>
       <c r="C2">
-        <v>0.05365704147425635</v>
+        <v>0.03240954602059256</v>
       </c>
       <c r="D2">
-        <v>-0.06610845217797154</v>
+        <v>0.00626104120930413</v>
       </c>
       <c r="E2">
-        <v>0.0004070781866578084</v>
+        <v>0.03741292830443597</v>
       </c>
       <c r="F2">
-        <v>0.1196993402607624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1179644821512246</v>
+      </c>
+      <c r="G2">
+        <v>0.05840870545137475</v>
+      </c>
+      <c r="H2">
+        <v>-0.064532542054772</v>
+      </c>
+      <c r="I2">
+        <v>0.1136760426546228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1812930992439949</v>
+        <v>-0.1354247691703167</v>
       </c>
       <c r="C3">
-        <v>-0.05083582834617997</v>
+        <v>0.06938529870489928</v>
       </c>
       <c r="D3">
-        <v>-0.1626509507751565</v>
+        <v>-0.03201014278668823</v>
       </c>
       <c r="E3">
-        <v>0.0724973436088544</v>
+        <v>-0.02428215952341458</v>
       </c>
       <c r="F3">
-        <v>0.3941418200222117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3949549099931748</v>
+      </c>
+      <c r="G3">
+        <v>0.2777907007159753</v>
+      </c>
+      <c r="H3">
+        <v>-0.09909494209363717</v>
+      </c>
+      <c r="I3">
+        <v>0.4116917557478302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07881357349879808</v>
+        <v>-0.06122732719844698</v>
       </c>
       <c r="C4">
-        <v>0.0169485157585843</v>
+        <v>0.03794469324606659</v>
       </c>
       <c r="D4">
-        <v>-0.06975127980210204</v>
+        <v>-0.03158860154766965</v>
       </c>
       <c r="E4">
-        <v>0.05252170402414021</v>
+        <v>0.04469917544764568</v>
       </c>
       <c r="F4">
-        <v>0.06266426098048225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07520108991569373</v>
+      </c>
+      <c r="G4">
+        <v>0.02221962145807113</v>
+      </c>
+      <c r="H4">
+        <v>-0.04559267682647595</v>
+      </c>
+      <c r="I4">
+        <v>0.06534600813915821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001013531131889137</v>
+        <v>-0.02759561640794932</v>
       </c>
       <c r="C6">
-        <v>-0.00209425145064559</v>
+        <v>0.01252238180804915</v>
       </c>
       <c r="D6">
-        <v>0.001152975464897558</v>
+        <v>-0.009137851737026522</v>
       </c>
       <c r="E6">
-        <v>-0.001548073002692466</v>
+        <v>0.008500828983856339</v>
       </c>
       <c r="F6">
-        <v>-0.002399934004489622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01051640910152468</v>
+      </c>
+      <c r="G6">
+        <v>-0.02165276868207838</v>
+      </c>
+      <c r="H6">
+        <v>0.01278008964987372</v>
+      </c>
+      <c r="I6">
+        <v>0.006809954238512712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03885564407308228</v>
+        <v>-0.03259645606170564</v>
       </c>
       <c r="C7">
-        <v>0.02038702569569875</v>
+        <v>0.0002860923153460158</v>
       </c>
       <c r="D7">
-        <v>-0.04880845085160603</v>
+        <v>-0.03735818034885852</v>
       </c>
       <c r="E7">
-        <v>0.007813792390873779</v>
+        <v>0.02879464102509909</v>
       </c>
       <c r="F7">
-        <v>0.08487578714161684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05504536313725263</v>
+      </c>
+      <c r="G7">
+        <v>0.04904622160151399</v>
+      </c>
+      <c r="H7">
+        <v>-0.004990755784849776</v>
+      </c>
+      <c r="I7">
+        <v>0.03978928634564755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03724233267338145</v>
+        <v>-0.01653147568110873</v>
       </c>
       <c r="C8">
-        <v>-0.006074811775745073</v>
+        <v>0.03471688582183805</v>
       </c>
       <c r="D8">
-        <v>-0.05711937663037276</v>
+        <v>-0.02665426443269538</v>
       </c>
       <c r="E8">
-        <v>0.04801435029859018</v>
+        <v>0.01817154091400398</v>
       </c>
       <c r="F8">
-        <v>0.06421442983862669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07198624262806159</v>
+      </c>
+      <c r="G8">
+        <v>0.0453936729419463</v>
+      </c>
+      <c r="H8">
+        <v>-0.0379180716711839</v>
+      </c>
+      <c r="I8">
+        <v>0.06220405717096834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06469310803890234</v>
+        <v>-0.05178986488105617</v>
       </c>
       <c r="C9">
-        <v>0.02522007813425155</v>
+        <v>0.02652964174584349</v>
       </c>
       <c r="D9">
-        <v>-0.05473976033218102</v>
+        <v>-0.02924356900066288</v>
       </c>
       <c r="E9">
-        <v>0.06171747598742819</v>
+        <v>0.0378382502740951</v>
       </c>
       <c r="F9">
-        <v>0.0514052303784611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07905439723892024</v>
+      </c>
+      <c r="G9">
+        <v>0.02022020224925392</v>
+      </c>
+      <c r="H9">
+        <v>-0.04635155051696958</v>
+      </c>
+      <c r="I9">
+        <v>0.03909369005653889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03731493341310171</v>
+        <v>-0.05572093085134799</v>
       </c>
       <c r="C10">
-        <v>0.06650264605775345</v>
+        <v>-0.1461063429740667</v>
       </c>
       <c r="D10">
-        <v>0.1287466469939721</v>
+        <v>0.07370421682396973</v>
       </c>
       <c r="E10">
-        <v>-0.07099555465838794</v>
+        <v>-0.04409138734266855</v>
       </c>
       <c r="F10">
-        <v>0.06495772085442643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05141609584513324</v>
+      </c>
+      <c r="G10">
+        <v>0.01974776895914889</v>
+      </c>
+      <c r="H10">
+        <v>-0.03478735764746364</v>
+      </c>
+      <c r="I10">
+        <v>0.03165564730125874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05010843152523566</v>
+        <v>-0.0423013393728747</v>
       </c>
       <c r="C11">
-        <v>0.0004932835124903603</v>
+        <v>0.03531472653385438</v>
       </c>
       <c r="D11">
-        <v>-0.03173868586094297</v>
+        <v>-0.008693082319272509</v>
       </c>
       <c r="E11">
-        <v>0.006924901430626517</v>
+        <v>0.01205471048137496</v>
       </c>
       <c r="F11">
-        <v>0.04672020079600922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03802396995439167</v>
+      </c>
+      <c r="G11">
+        <v>-0.001590289410127522</v>
+      </c>
+      <c r="H11">
+        <v>-0.0140243994473095</v>
+      </c>
+      <c r="I11">
+        <v>0.03581868427978856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04097132321442703</v>
+        <v>-0.03952329552180409</v>
       </c>
       <c r="C12">
-        <v>0.0004140278037818796</v>
+        <v>0.02824783796840002</v>
       </c>
       <c r="D12">
-        <v>-0.02815939967644789</v>
+        <v>-0.01926248888410369</v>
       </c>
       <c r="E12">
-        <v>0.02578884703514868</v>
+        <v>0.01416511708994294</v>
       </c>
       <c r="F12">
-        <v>0.03567292002018401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01589776239491529</v>
+      </c>
+      <c r="G12">
+        <v>0.005281164505686213</v>
+      </c>
+      <c r="H12">
+        <v>-0.006885165822113617</v>
+      </c>
+      <c r="I12">
+        <v>0.02563341367937699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04644792210583252</v>
+        <v>-0.03610973656951401</v>
       </c>
       <c r="C13">
-        <v>0.006821245001262905</v>
+        <v>0.02779938487882491</v>
       </c>
       <c r="D13">
-        <v>-0.05042653389478394</v>
+        <v>0.004595932441588991</v>
       </c>
       <c r="E13">
-        <v>-0.009609778677150512</v>
+        <v>0.01085815882556828</v>
       </c>
       <c r="F13">
-        <v>0.1102057109624072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09482375686228893</v>
+      </c>
+      <c r="G13">
+        <v>0.03450584627580145</v>
+      </c>
+      <c r="H13">
+        <v>-0.03719994136997618</v>
+      </c>
+      <c r="I13">
+        <v>0.07801955625270481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02450082634262542</v>
+        <v>-0.02076366276401026</v>
       </c>
       <c r="C14">
-        <v>0.01607333538745589</v>
+        <v>0.01405486663076579</v>
       </c>
       <c r="D14">
-        <v>-0.04442404440447945</v>
+        <v>-0.01187588842636223</v>
       </c>
       <c r="E14">
-        <v>0.01716964488881812</v>
+        <v>0.02968762438652558</v>
       </c>
       <c r="F14">
-        <v>0.03248492943396492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03977265800462718</v>
+      </c>
+      <c r="G14">
+        <v>0.05496938033621977</v>
+      </c>
+      <c r="H14">
+        <v>-0.01972601085098651</v>
+      </c>
+      <c r="I14">
+        <v>0.02058994030966835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04041004734677866</v>
+        <v>-0.03578023632557017</v>
       </c>
       <c r="C16">
-        <v>-0.006069133540290195</v>
+        <v>0.03259980976817386</v>
       </c>
       <c r="D16">
-        <v>-0.02926635298200488</v>
+        <v>-0.01370459244903343</v>
       </c>
       <c r="E16">
-        <v>0.01139885083551828</v>
+        <v>0.009554034423992119</v>
       </c>
       <c r="F16">
-        <v>0.03692558516661867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03360667130953605</v>
+      </c>
+      <c r="G16">
+        <v>0.005161436527495255</v>
+      </c>
+      <c r="H16">
+        <v>-0.007365602023189781</v>
+      </c>
+      <c r="I16">
+        <v>0.03579067711818514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05983704904359754</v>
+        <v>-0.04602500147223145</v>
       </c>
       <c r="C19">
-        <v>-0.0117011104079541</v>
+        <v>0.04122578720747905</v>
       </c>
       <c r="D19">
-        <v>-0.05426270917827562</v>
+        <v>-0.01283150928121875</v>
       </c>
       <c r="E19">
-        <v>0.01619491755190845</v>
+        <v>0.01732971169567542</v>
       </c>
       <c r="F19">
-        <v>0.1006748731391363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09598461038931133</v>
+      </c>
+      <c r="G19">
+        <v>0.05128729160678455</v>
+      </c>
+      <c r="H19">
+        <v>-0.02646819410275251</v>
+      </c>
+      <c r="I19">
+        <v>0.08399545280670821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01890853419535573</v>
+        <v>-0.01266851092011659</v>
       </c>
       <c r="C20">
-        <v>0.01339426761574213</v>
+        <v>0.01555810447797677</v>
       </c>
       <c r="D20">
-        <v>-0.04476977505863368</v>
+        <v>-0.0115874481500473</v>
       </c>
       <c r="E20">
-        <v>0.0329398342714098</v>
+        <v>0.02054778796488208</v>
       </c>
       <c r="F20">
-        <v>0.07163298809530794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06169273468358698</v>
+      </c>
+      <c r="G20">
+        <v>0.06225479411462082</v>
+      </c>
+      <c r="H20">
+        <v>-0.01303903059720224</v>
+      </c>
+      <c r="I20">
+        <v>0.07302336216160223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02182301536536391</v>
+        <v>-0.02704380285370932</v>
       </c>
       <c r="C21">
-        <v>-0.01309145815851916</v>
+        <v>0.01909458085188405</v>
       </c>
       <c r="D21">
-        <v>-0.0448646854614373</v>
+        <v>-0.02019368951037202</v>
       </c>
       <c r="E21">
-        <v>0.01080772233656332</v>
+        <v>0.006071914661988622</v>
       </c>
       <c r="F21">
-        <v>0.08891332139553132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07191850485859021</v>
+      </c>
+      <c r="G21">
+        <v>0.01023823628397562</v>
+      </c>
+      <c r="H21">
+        <v>-0.05076950116467751</v>
+      </c>
+      <c r="I21">
+        <v>0.008573640278067748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03941294293862409</v>
+        <v>-0.03447946691298875</v>
       </c>
       <c r="C24">
-        <v>-0.001842579769647378</v>
+        <v>0.02828880927360013</v>
       </c>
       <c r="D24">
-        <v>-0.02917092203298309</v>
+        <v>-0.01241400949553206</v>
       </c>
       <c r="E24">
-        <v>0.01492436316647982</v>
+        <v>0.01132502024823004</v>
       </c>
       <c r="F24">
-        <v>0.04589697539619651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03620077502833288</v>
+      </c>
+      <c r="G24">
+        <v>0.0005266552476984133</v>
+      </c>
+      <c r="H24">
+        <v>-0.008598885993391137</v>
+      </c>
+      <c r="I24">
+        <v>0.03909488120855347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04170876028836393</v>
+        <v>-0.04220595746647546</v>
       </c>
       <c r="C25">
-        <v>0.001630269083939836</v>
+        <v>0.02747975240944131</v>
       </c>
       <c r="D25">
-        <v>-0.02863252212011553</v>
+        <v>-0.01104989358648184</v>
       </c>
       <c r="E25">
-        <v>0.01582132473661619</v>
+        <v>0.01257469102501518</v>
       </c>
       <c r="F25">
-        <v>0.04614056574171661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0452864327278141</v>
+      </c>
+      <c r="G25">
+        <v>-0.007825737743700137</v>
+      </c>
+      <c r="H25">
+        <v>-0.01335520794496738</v>
+      </c>
+      <c r="I25">
+        <v>0.03280561970731163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01930512497190304</v>
+        <v>-0.01176570812408157</v>
       </c>
       <c r="C26">
-        <v>-0.006170088928139339</v>
+        <v>0.02558946858211339</v>
       </c>
       <c r="D26">
-        <v>-0.05386879402583889</v>
+        <v>-0.005753001825802307</v>
       </c>
       <c r="E26">
-        <v>-0.002901082321609236</v>
+        <v>0.003592635832879</v>
       </c>
       <c r="F26">
-        <v>0.03790084093269329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04620263204700129</v>
+      </c>
+      <c r="G26">
+        <v>0.03106485222712465</v>
+      </c>
+      <c r="H26">
+        <v>-0.01256406482665031</v>
+      </c>
+      <c r="I26">
+        <v>0.03609906424391394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1047328381374137</v>
+        <v>-0.0600884243037011</v>
       </c>
       <c r="C27">
-        <v>0.0290067941968212</v>
+        <v>0.0174050854901471</v>
       </c>
       <c r="D27">
-        <v>-0.04269099917348144</v>
+        <v>-0.01001772194798788</v>
       </c>
       <c r="E27">
-        <v>0.03702048877866292</v>
+        <v>0.02838723960077788</v>
       </c>
       <c r="F27">
-        <v>0.057889986323691</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04643048411811385</v>
+      </c>
+      <c r="G27">
+        <v>0.03357125015652092</v>
+      </c>
+      <c r="H27">
+        <v>-0.02487667111358874</v>
+      </c>
+      <c r="I27">
+        <v>0.02031650728799995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.05135251523595517</v>
+        <v>-0.08128772253358796</v>
       </c>
       <c r="C28">
-        <v>0.08475752467279468</v>
+        <v>-0.2228568659487122</v>
       </c>
       <c r="D28">
-        <v>0.2126561775840666</v>
+        <v>0.1032293142721866</v>
       </c>
       <c r="E28">
-        <v>-0.09793748279585346</v>
+        <v>-0.06691781660657238</v>
       </c>
       <c r="F28">
-        <v>0.03911964037265374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0313297425000428</v>
+      </c>
+      <c r="G28">
+        <v>0.04154994243613385</v>
+      </c>
+      <c r="H28">
+        <v>-0.03253612100776976</v>
+      </c>
+      <c r="I28">
+        <v>0.05184699239157795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02784411663114684</v>
+        <v>-0.02212688924587348</v>
       </c>
       <c r="C29">
-        <v>0.01459488732472931</v>
+        <v>0.01483671435509099</v>
       </c>
       <c r="D29">
-        <v>-0.04564530822831978</v>
+        <v>-0.01512755893261098</v>
       </c>
       <c r="E29">
-        <v>0.03029939656871004</v>
+        <v>0.03248112587690743</v>
       </c>
       <c r="F29">
-        <v>0.02463563549399777</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03696817871410293</v>
+      </c>
+      <c r="G29">
+        <v>0.05782382180765096</v>
+      </c>
+      <c r="H29">
+        <v>-0.02559393220455873</v>
+      </c>
+      <c r="I29">
+        <v>0.004222545239317328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1002270804201851</v>
+        <v>-0.08212184742165735</v>
       </c>
       <c r="C30">
-        <v>0.03428363952295984</v>
+        <v>0.06753488557542928</v>
       </c>
       <c r="D30">
-        <v>-0.06830303684627219</v>
+        <v>0.01599421815178935</v>
       </c>
       <c r="E30">
-        <v>0.01802061428599721</v>
+        <v>0.03969205856542849</v>
       </c>
       <c r="F30">
-        <v>0.1047917543371623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1011601175212707</v>
+      </c>
+      <c r="G30">
+        <v>0.01427371207432497</v>
+      </c>
+      <c r="H30">
+        <v>0.003909212903024118</v>
+      </c>
+      <c r="I30">
+        <v>0.01992463104223734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06096117129165977</v>
+        <v>-0.0557241945584707</v>
       </c>
       <c r="C31">
-        <v>0.01545233611502059</v>
+        <v>0.01948880636846114</v>
       </c>
       <c r="D31">
-        <v>-0.03186668613342094</v>
+        <v>0.002412365662137417</v>
       </c>
       <c r="E31">
-        <v>-0.03149012612643529</v>
+        <v>0.02168376750022391</v>
       </c>
       <c r="F31">
-        <v>-0.01681960214793248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.001721718480779001</v>
+      </c>
+      <c r="G31">
+        <v>0.04127509243457165</v>
+      </c>
+      <c r="H31">
+        <v>-0.04512247365019038</v>
+      </c>
+      <c r="I31">
+        <v>0.01311931476339243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05139813580781122</v>
+        <v>-0.02923437449867461</v>
       </c>
       <c r="C32">
-        <v>0.005998462937158315</v>
+        <v>0.02967178019531258</v>
       </c>
       <c r="D32">
-        <v>-0.05663357367275636</v>
+        <v>-0.03109567072264654</v>
       </c>
       <c r="E32">
-        <v>0.03710477280297701</v>
+        <v>0.04043297943032973</v>
       </c>
       <c r="F32">
-        <v>0.08189152571024341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07267950051461172</v>
+      </c>
+      <c r="G32">
+        <v>0.03371024560071917</v>
+      </c>
+      <c r="H32">
+        <v>-0.02974948504874819</v>
+      </c>
+      <c r="I32">
+        <v>0.05775584233230626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.04939513098474994</v>
+        <v>-0.04308994519124518</v>
       </c>
       <c r="C33">
-        <v>-0.006354768362450224</v>
+        <v>0.05483564514849538</v>
       </c>
       <c r="D33">
-        <v>-0.07766238420050399</v>
+        <v>-0.002507206144634561</v>
       </c>
       <c r="E33">
-        <v>0.0143960004947482</v>
+        <v>0.01072544727387829</v>
       </c>
       <c r="F33">
-        <v>0.06234444586813805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07055924647618962</v>
+      </c>
+      <c r="G33">
+        <v>0.04053407289643957</v>
+      </c>
+      <c r="H33">
+        <v>-0.03941144265239186</v>
+      </c>
+      <c r="I33">
+        <v>0.03725133298177452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04061752206898955</v>
+        <v>-0.03708899901267734</v>
       </c>
       <c r="C34">
-        <v>0.005748590826684181</v>
+        <v>0.03019899163412383</v>
       </c>
       <c r="D34">
-        <v>-0.03410963159861359</v>
+        <v>-0.01848818953780543</v>
       </c>
       <c r="E34">
-        <v>0.01696690755798347</v>
+        <v>0.02115420587886858</v>
       </c>
       <c r="F34">
-        <v>0.0384515055761608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03733567080716187</v>
+      </c>
+      <c r="G34">
+        <v>-0.0001878418301632877</v>
+      </c>
+      <c r="H34">
+        <v>-0.01109665122511921</v>
+      </c>
+      <c r="I34">
+        <v>0.03758224432198495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0135897092382764</v>
+        <v>-0.01545255757415517</v>
       </c>
       <c r="C36">
-        <v>0.01201754078753511</v>
+        <v>6.07716885476516e-07</v>
       </c>
       <c r="D36">
-        <v>-0.01128290825045398</v>
+        <v>-0.003334325410813737</v>
       </c>
       <c r="E36">
-        <v>0.008321988344764587</v>
+        <v>0.01000585584745765</v>
       </c>
       <c r="F36">
-        <v>0.02296528386265329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02762451127754225</v>
+      </c>
+      <c r="G36">
+        <v>0.03020956370965742</v>
+      </c>
+      <c r="H36">
+        <v>-0.02652611774550066</v>
+      </c>
+      <c r="I36">
+        <v>-0.01027795838797969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.02657180797241961</v>
+        <v>-0.02669307947941174</v>
       </c>
       <c r="C38">
-        <v>0.007362235620376042</v>
+        <v>0.003401910045560739</v>
       </c>
       <c r="D38">
-        <v>0.004652485249210057</v>
+        <v>-0.005578396602610163</v>
       </c>
       <c r="E38">
-        <v>0.009149305359023028</v>
+        <v>0.004232981116241314</v>
       </c>
       <c r="F38">
-        <v>0.01612558726483669</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04386718189219659</v>
+      </c>
+      <c r="G38">
+        <v>0.01344517045878787</v>
+      </c>
+      <c r="H38">
+        <v>-0.03304730892476856</v>
+      </c>
+      <c r="I38">
+        <v>-0.003063681508907743</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0616377807103469</v>
+        <v>-0.04669470065073002</v>
       </c>
       <c r="C39">
-        <v>0.0074800963776642</v>
+        <v>0.05052108943920894</v>
       </c>
       <c r="D39">
-        <v>-0.04720732064115249</v>
+        <v>-0.01545386186965955</v>
       </c>
       <c r="E39">
-        <v>0.003678630965664596</v>
+        <v>0.02604115802371931</v>
       </c>
       <c r="F39">
-        <v>0.03574172334637881</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05462072951371994</v>
+      </c>
+      <c r="G39">
+        <v>-0.006970238985185381</v>
+      </c>
+      <c r="H39">
+        <v>-0.02344358531145527</v>
+      </c>
+      <c r="I39">
+        <v>0.01761539984571769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05822754924589707</v>
+        <v>-0.04736099327723944</v>
       </c>
       <c r="C40">
-        <v>0.02536938030510504</v>
+        <v>0.04680330238059274</v>
       </c>
       <c r="D40">
-        <v>-0.07475035062835149</v>
+        <v>0.004189122477894682</v>
       </c>
       <c r="E40">
-        <v>-0.01191709651032823</v>
+        <v>0.02971625323006847</v>
       </c>
       <c r="F40">
-        <v>0.08958329556952696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.0833040626014889</v>
+      </c>
+      <c r="G40">
+        <v>0.03442019364475279</v>
+      </c>
+      <c r="H40">
+        <v>-0.03475326298384812</v>
+      </c>
+      <c r="I40">
+        <v>0.1119530158339771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.007305840363400732</v>
+        <v>-1.138054198124211e-05</v>
       </c>
       <c r="C41">
-        <v>0.002329897104314054</v>
+        <v>0.002887009149938491</v>
       </c>
       <c r="D41">
-        <v>-0.02814980940029466</v>
+        <v>-6.474549502400741e-05</v>
       </c>
       <c r="E41">
-        <v>0.01006909406744142</v>
+        <v>0.008505272944550243</v>
       </c>
       <c r="F41">
-        <v>-0.01299890432356137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007483239780329405</v>
+      </c>
+      <c r="G41">
+        <v>0.04116015362568971</v>
+      </c>
+      <c r="H41">
+        <v>-0.0398749400964732</v>
+      </c>
+      <c r="I41">
+        <v>0.000383799453983316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2462217065570143</v>
+        <v>-0.1973863470457483</v>
       </c>
       <c r="C42">
-        <v>-0.9134615720990525</v>
+        <v>0.3288290251627108</v>
       </c>
       <c r="D42">
-        <v>0.1421375988070365</v>
+        <v>-0.1194387960252164</v>
       </c>
       <c r="E42">
-        <v>-0.215215603146383</v>
+        <v>-0.8835368817581604</v>
       </c>
       <c r="F42">
-        <v>-0.03178726718133684</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1633937707138058</v>
+      </c>
+      <c r="G42">
+        <v>0.005874724724701466</v>
+      </c>
+      <c r="H42">
+        <v>0.008924488152747516</v>
+      </c>
+      <c r="I42">
+        <v>0.03494468197298854</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006679253028772821</v>
+        <v>-0.002907941913031758</v>
       </c>
       <c r="C43">
-        <v>0.001015408662786708</v>
+        <v>0.005664327808928047</v>
       </c>
       <c r="D43">
-        <v>-0.03038885884439877</v>
+        <v>0.001439380687292195</v>
       </c>
       <c r="E43">
-        <v>0.006526540516039874</v>
+        <v>0.006866443471214833</v>
       </c>
       <c r="F43">
-        <v>0.01901936234589514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01923256217914368</v>
+      </c>
+      <c r="G43">
+        <v>0.03361655727065645</v>
+      </c>
+      <c r="H43">
+        <v>-0.02114134203521637</v>
+      </c>
+      <c r="I43">
+        <v>0.01168037608977699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02880460609498598</v>
+        <v>-0.02021432493783874</v>
       </c>
       <c r="C44">
-        <v>0.002841576322773928</v>
+        <v>0.03066988186453823</v>
       </c>
       <c r="D44">
-        <v>-0.07191763691623458</v>
+        <v>-0.01444496006528593</v>
       </c>
       <c r="E44">
-        <v>0.02407413015823803</v>
+        <v>0.01536682157152824</v>
       </c>
       <c r="F44">
-        <v>0.1144859470438174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1177210247009481</v>
+      </c>
+      <c r="G44">
+        <v>0.09029981550883028</v>
+      </c>
+      <c r="H44">
+        <v>-0.06014674177009087</v>
+      </c>
+      <c r="I44">
+        <v>0.05895469474564349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02982282021101069</v>
+        <v>-0.02143541730127734</v>
       </c>
       <c r="C46">
-        <v>0.007598730481314793</v>
+        <v>0.030861568907547</v>
       </c>
       <c r="D46">
-        <v>-0.0521447809532634</v>
+        <v>-0.007758303860913167</v>
       </c>
       <c r="E46">
-        <v>0.01343395871873117</v>
+        <v>0.03305291963041456</v>
       </c>
       <c r="F46">
-        <v>0.01388032227109257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04744063821168319</v>
+      </c>
+      <c r="G46">
+        <v>0.05811367729078741</v>
+      </c>
+      <c r="H46">
+        <v>-0.02575048862387</v>
+      </c>
+      <c r="I46">
+        <v>0.005410656063636003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08627327871255842</v>
+        <v>-0.0814890298274919</v>
       </c>
       <c r="C47">
-        <v>0.01914240302035295</v>
+        <v>0.02538145357260657</v>
       </c>
       <c r="D47">
-        <v>-0.03781737367755055</v>
+        <v>-0.00687354395441203</v>
       </c>
       <c r="E47">
-        <v>0.01158244795352945</v>
+        <v>0.03100753184960169</v>
       </c>
       <c r="F47">
-        <v>-0.02084230264427327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01916324722570307</v>
+      </c>
+      <c r="G47">
+        <v>0.06680908878139008</v>
+      </c>
+      <c r="H47">
+        <v>-0.03605838268888043</v>
+      </c>
+      <c r="I47">
+        <v>0.02549306210278603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01375644282296799</v>
+        <v>-0.01926562806241685</v>
       </c>
       <c r="C48">
-        <v>0.007345234380332373</v>
+        <v>0.01116845756316293</v>
       </c>
       <c r="D48">
-        <v>-0.03372856528766619</v>
+        <v>-0.00506576717400855</v>
       </c>
       <c r="E48">
-        <v>0.01092652485040659</v>
+        <v>0.01471992355329522</v>
       </c>
       <c r="F48">
-        <v>0.02556504820478442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02923652599328263</v>
+      </c>
+      <c r="G48">
+        <v>0.02274437822896862</v>
+      </c>
+      <c r="H48">
+        <v>-0.01965206127357563</v>
+      </c>
+      <c r="I48">
+        <v>0.00935039019548646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08660628369165634</v>
+        <v>-0.08174303274949452</v>
       </c>
       <c r="C50">
-        <v>0.006439019561378112</v>
+        <v>0.03316893331820775</v>
       </c>
       <c r="D50">
-        <v>-0.03868353302333632</v>
+        <v>-0.02321554290836046</v>
       </c>
       <c r="E50">
-        <v>-0.008627854700205944</v>
+        <v>0.02370070435636718</v>
       </c>
       <c r="F50">
-        <v>-0.01362225871374796</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.006242990763258651</v>
+      </c>
+      <c r="G50">
+        <v>0.04469792256381103</v>
+      </c>
+      <c r="H50">
+        <v>0.005404808062262294</v>
+      </c>
+      <c r="I50">
+        <v>-0.009999232312658408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05430392165100426</v>
+        <v>-0.03900262856520276</v>
       </c>
       <c r="C51">
-        <v>0.01896640731594881</v>
+        <v>0.001834610426708191</v>
       </c>
       <c r="D51">
-        <v>-0.03164344453268711</v>
+        <v>0.01251083575739848</v>
       </c>
       <c r="E51">
-        <v>-0.02811184316880027</v>
+        <v>0.01098778640048637</v>
       </c>
       <c r="F51">
-        <v>0.05816802525483825</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08330061174614797</v>
+      </c>
+      <c r="G51">
+        <v>0.06299694563549491</v>
+      </c>
+      <c r="H51">
+        <v>-0.05734768705885868</v>
+      </c>
+      <c r="I51">
+        <v>0.0386052882190724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1252559303403267</v>
+        <v>-0.114271811751566</v>
       </c>
       <c r="C53">
-        <v>0.02881975054171805</v>
+        <v>0.04566842518480373</v>
       </c>
       <c r="D53">
-        <v>-0.05987563377004665</v>
+        <v>-0.0139394498563303</v>
       </c>
       <c r="E53">
-        <v>-0.001214025642995603</v>
+        <v>0.05791167723792972</v>
       </c>
       <c r="F53">
-        <v>-0.07490086334793022</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0583872436322956</v>
+      </c>
+      <c r="G53">
+        <v>0.03084535534257812</v>
+      </c>
+      <c r="H53">
+        <v>-0.02440258725570986</v>
+      </c>
+      <c r="I53">
+        <v>0.02769639491989521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02306784155424442</v>
+        <v>-0.02506064267799814</v>
       </c>
       <c r="C54">
-        <v>0.02127292756007478</v>
+        <v>0.001261609600540195</v>
       </c>
       <c r="D54">
-        <v>-0.03058007681877457</v>
+        <v>-0.004769753286303744</v>
       </c>
       <c r="E54">
-        <v>0.01702064034028276</v>
+        <v>0.03053573879081163</v>
       </c>
       <c r="F54">
-        <v>0.03335245674905196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03539993909356057</v>
+      </c>
+      <c r="G54">
+        <v>0.05474702070418398</v>
+      </c>
+      <c r="H54">
+        <v>-0.03558236944052037</v>
+      </c>
+      <c r="I54">
+        <v>-0.0002954788107999528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1071787008495008</v>
+        <v>-0.09353725076417362</v>
       </c>
       <c r="C55">
-        <v>0.02199251708425689</v>
+        <v>0.03635398016895014</v>
       </c>
       <c r="D55">
-        <v>-0.01814780575859433</v>
+        <v>-0.02821736606785662</v>
       </c>
       <c r="E55">
-        <v>0.03630663902074704</v>
+        <v>0.04247265766859996</v>
       </c>
       <c r="F55">
-        <v>-0.02816858758205966</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04256680070096075</v>
+      </c>
+      <c r="G55">
+        <v>0.04625885224928921</v>
+      </c>
+      <c r="H55">
+        <v>0.009087688467539908</v>
+      </c>
+      <c r="I55">
+        <v>0.005209723062740711</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1625745023538331</v>
+        <v>-0.1559256030829406</v>
       </c>
       <c r="C56">
-        <v>0.07850916589831299</v>
+        <v>0.03738833603123604</v>
       </c>
       <c r="D56">
-        <v>-0.03426392978840982</v>
+        <v>-0.01311202160517974</v>
       </c>
       <c r="E56">
-        <v>0.01574943975098712</v>
+        <v>0.09261362990206583</v>
       </c>
       <c r="F56">
-        <v>-0.1111667438578628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1026738704730622</v>
+      </c>
+      <c r="G56">
+        <v>-0.006676608654430176</v>
+      </c>
+      <c r="H56">
+        <v>0.02374296343375821</v>
+      </c>
+      <c r="I56">
+        <v>0.02609745385226359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06385479189286419</v>
+        <v>-0.05437008022309108</v>
       </c>
       <c r="C57">
-        <v>0.01183869012540891</v>
+        <v>0.03468656193879405</v>
       </c>
       <c r="D57">
-        <v>-0.05282537644428888</v>
+        <v>0.004964903452034228</v>
       </c>
       <c r="E57">
-        <v>-0.01041702961940079</v>
+        <v>0.007389877795987432</v>
       </c>
       <c r="F57">
-        <v>0.05867549809191708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06145654270338019</v>
+      </c>
+      <c r="G57">
+        <v>0.01692126746685374</v>
+      </c>
+      <c r="H57">
+        <v>-0.01877598194515935</v>
+      </c>
+      <c r="I57">
+        <v>0.03207448871576134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1908391305187234</v>
+        <v>-0.1914343259215862</v>
       </c>
       <c r="C58">
-        <v>0.001759811426687006</v>
+        <v>0.1561656563182519</v>
       </c>
       <c r="D58">
-        <v>-0.1220698096058373</v>
+        <v>0.03489726544976216</v>
       </c>
       <c r="E58">
-        <v>0.005508413269657204</v>
+        <v>-0.0170430675976823</v>
       </c>
       <c r="F58">
-        <v>0.2422378529197296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3780867392881871</v>
+      </c>
+      <c r="G58">
+        <v>0.3458346173766251</v>
+      </c>
+      <c r="H58">
+        <v>0.2831067684524898</v>
+      </c>
+      <c r="I58">
+        <v>-0.7145872320584175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.04045407682450321</v>
+        <v>-0.0781284476341169</v>
       </c>
       <c r="C59">
-        <v>0.09644987530860585</v>
+        <v>-0.1870011053921625</v>
       </c>
       <c r="D59">
-        <v>0.1590428981118874</v>
+        <v>0.1059204569541087</v>
       </c>
       <c r="E59">
-        <v>-0.07392112983082708</v>
+        <v>-0.03391206813847947</v>
       </c>
       <c r="F59">
-        <v>0.03556145009319517</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.04670023624756653</v>
+      </c>
+      <c r="G59">
+        <v>-0.003489008158563897</v>
+      </c>
+      <c r="H59">
+        <v>-0.01322169385601743</v>
+      </c>
+      <c r="I59">
+        <v>-0.003319326716902288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1825838437966435</v>
+        <v>-0.1995183384553624</v>
       </c>
       <c r="C60">
-        <v>0.05594864762898086</v>
+        <v>-0.003936903591523791</v>
       </c>
       <c r="D60">
-        <v>0.007814951723215125</v>
+        <v>0.06444680561257368</v>
       </c>
       <c r="E60">
-        <v>-0.08372694809331585</v>
+        <v>0.01430558325809727</v>
       </c>
       <c r="F60">
-        <v>0.1387273797823542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1810311126406456</v>
+      </c>
+      <c r="G60">
+        <v>-0.3571888523158577</v>
+      </c>
+      <c r="H60">
+        <v>0.0222839469935221</v>
+      </c>
+      <c r="I60">
+        <v>0.03430387876703295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03219809537955987</v>
+        <v>-0.03479713984203198</v>
       </c>
       <c r="C61">
-        <v>0.003725165429138527</v>
+        <v>0.03287531989782715</v>
       </c>
       <c r="D61">
-        <v>-0.02535045344138707</v>
+        <v>-0.01517667684335838</v>
       </c>
       <c r="E61">
-        <v>0.01610232208010796</v>
+        <v>0.018224118926275</v>
       </c>
       <c r="F61">
-        <v>0.03731538428631621</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03863054551640546</v>
+      </c>
+      <c r="G61">
+        <v>-0.017324642090125</v>
+      </c>
+      <c r="H61">
+        <v>-0.01260322193090457</v>
+      </c>
+      <c r="I61">
+        <v>0.005886094951401332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03028842740446133</v>
+        <v>-0.02548904331693322</v>
       </c>
       <c r="C63">
-        <v>0.01318027017003671</v>
+        <v>0.02201036166042459</v>
       </c>
       <c r="D63">
-        <v>-0.03959560364237037</v>
+        <v>-0.008470028596347193</v>
       </c>
       <c r="E63">
-        <v>0.01125874605447635</v>
+        <v>0.02001428897273315</v>
       </c>
       <c r="F63">
-        <v>0.0433341928209765</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0302458847210688</v>
+      </c>
+      <c r="G63">
+        <v>0.04840807264200824</v>
+      </c>
+      <c r="H63">
+        <v>-0.009628567175537282</v>
+      </c>
+      <c r="I63">
+        <v>0.0259509076055177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05050703863521244</v>
+        <v>-0.05166969213874455</v>
       </c>
       <c r="C64">
-        <v>0.006827644602122047</v>
+        <v>0.03330976957088175</v>
       </c>
       <c r="D64">
-        <v>-0.05237372762667719</v>
+        <v>-0.02584131742998556</v>
       </c>
       <c r="E64">
-        <v>0.05346438648391954</v>
+        <v>0.02629507005191618</v>
       </c>
       <c r="F64">
-        <v>0.03659382455379381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04092796839090303</v>
+      </c>
+      <c r="G64">
+        <v>0.02436044178195062</v>
+      </c>
+      <c r="H64">
+        <v>-0.06329010555936337</v>
+      </c>
+      <c r="I64">
+        <v>0.0457771276410799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.001198158056130071</v>
+        <v>-0.0310141146117164</v>
       </c>
       <c r="C65">
-        <v>-0.002763165430030658</v>
+        <v>0.01263960878823124</v>
       </c>
       <c r="D65">
-        <v>0.001434334720632461</v>
+        <v>-0.009316394702262205</v>
       </c>
       <c r="E65">
-        <v>-0.001953027284306724</v>
+        <v>0.008514670441795</v>
       </c>
       <c r="F65">
-        <v>-0.002140937068337072</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.007483917654126072</v>
+      </c>
+      <c r="G65">
+        <v>-0.02601723373300677</v>
+      </c>
+      <c r="H65">
+        <v>0.01031195139594802</v>
+      </c>
+      <c r="I65">
+        <v>0.006754156414210582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.06087551712377086</v>
+        <v>-0.0560372051967344</v>
       </c>
       <c r="C66">
-        <v>0.02270488088047119</v>
+        <v>0.06044023873659132</v>
       </c>
       <c r="D66">
-        <v>-0.06863642130134946</v>
+        <v>-0.01126398505011882</v>
       </c>
       <c r="E66">
-        <v>0.02699918468423198</v>
+        <v>0.05198178987426168</v>
       </c>
       <c r="F66">
-        <v>0.07512911916633998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06828358981981007</v>
+      </c>
+      <c r="G66">
+        <v>-0.01507700663697743</v>
+      </c>
+      <c r="H66">
+        <v>-0.009475822968253647</v>
+      </c>
+      <c r="I66">
+        <v>0.05744015434797543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0447911257986942</v>
+        <v>-0.04494973253930568</v>
       </c>
       <c r="C67">
-        <v>0.01339065852608857</v>
+        <v>-0.004540730334191868</v>
       </c>
       <c r="D67">
-        <v>0.01851452886575416</v>
+        <v>0.00295990612335934</v>
       </c>
       <c r="E67">
-        <v>-0.004077311990208589</v>
+        <v>0.005613709159409141</v>
       </c>
       <c r="F67">
-        <v>0.02138719799815509</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.0348593675424876</v>
+      </c>
+      <c r="G67">
+        <v>-0.010892648755148</v>
+      </c>
+      <c r="H67">
+        <v>-0.04528909968352293</v>
+      </c>
+      <c r="I67">
+        <v>-0.006641006758933888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06952832884450073</v>
+        <v>-0.08710849922741531</v>
       </c>
       <c r="C68">
-        <v>0.09167576861214223</v>
+        <v>-0.2086159136079167</v>
       </c>
       <c r="D68">
-        <v>0.2080907911206911</v>
+        <v>0.1085868672901402</v>
       </c>
       <c r="E68">
-        <v>-0.08903776483451356</v>
+        <v>-0.05419180533629846</v>
       </c>
       <c r="F68">
-        <v>0.022237689704479</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0108089456424195</v>
+      </c>
+      <c r="G68">
+        <v>0.04444398221684297</v>
+      </c>
+      <c r="H68">
+        <v>0.01251285965881594</v>
+      </c>
+      <c r="I68">
+        <v>-0.01107567954303529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07303274444363034</v>
+        <v>-0.06713356941673848</v>
       </c>
       <c r="C69">
-        <v>0.02105076243469401</v>
+        <v>0.02156045786906888</v>
       </c>
       <c r="D69">
-        <v>-0.02017651146934875</v>
+        <v>-0.002009740161049508</v>
       </c>
       <c r="E69">
-        <v>-0.00318130652437012</v>
+        <v>0.03165354423455035</v>
       </c>
       <c r="F69">
-        <v>-0.007406906234425568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.00524954390420591</v>
+      </c>
+      <c r="G69">
+        <v>0.04277089646323306</v>
+      </c>
+      <c r="H69">
+        <v>-0.02856470335811347</v>
+      </c>
+      <c r="I69">
+        <v>0.01742138177746833</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.07142297502219377</v>
+        <v>-0.08703061379636041</v>
       </c>
       <c r="C71">
-        <v>0.1118609999195334</v>
+        <v>-0.2248189508851687</v>
       </c>
       <c r="D71">
-        <v>0.2483995757631447</v>
+        <v>0.1225912254972379</v>
       </c>
       <c r="E71">
-        <v>-0.1481845879018825</v>
+        <v>-0.07148196113445657</v>
       </c>
       <c r="F71">
-        <v>0.06863105472889638</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.0398994525747635</v>
+      </c>
+      <c r="G71">
+        <v>0.02806907105909147</v>
+      </c>
+      <c r="H71">
+        <v>-0.01390773360663183</v>
+      </c>
+      <c r="I71">
+        <v>0.009823711408534034</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1273492090570821</v>
+        <v>-0.1315654272436114</v>
       </c>
       <c r="C72">
-        <v>0.07427843537950761</v>
+        <v>0.05187453930486834</v>
       </c>
       <c r="D72">
-        <v>-0.03869039698252486</v>
+        <v>-0.003939757145890677</v>
       </c>
       <c r="E72">
-        <v>0.01082197990717559</v>
+        <v>0.08862104209821345</v>
       </c>
       <c r="F72">
-        <v>0.08065345674812679</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0948550383672546</v>
+      </c>
+      <c r="G72">
+        <v>-0.1013424204104525</v>
+      </c>
+      <c r="H72">
+        <v>0.01336901166724387</v>
+      </c>
+      <c r="I72">
+        <v>-0.1510318077068927</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2859629807142379</v>
+        <v>-0.2863791801474714</v>
       </c>
       <c r="C73">
-        <v>0.07053788164901158</v>
+        <v>0.01498696366611245</v>
       </c>
       <c r="D73">
-        <v>0.05117656530652841</v>
+        <v>0.09767172349693619</v>
       </c>
       <c r="E73">
-        <v>-0.1140682527764293</v>
+        <v>-0.02726111110411252</v>
       </c>
       <c r="F73">
-        <v>0.240312206692345</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2597770990592614</v>
+      </c>
+      <c r="G73">
+        <v>-0.5348653462571139</v>
+      </c>
+      <c r="H73">
+        <v>0.08252636695848554</v>
+      </c>
+      <c r="I73">
+        <v>-0.00236248701831032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.14355691015467</v>
+        <v>-0.138359990170643</v>
       </c>
       <c r="C74">
-        <v>0.02893015534416274</v>
+        <v>0.05257104367913276</v>
       </c>
       <c r="D74">
-        <v>-0.03576289808447562</v>
+        <v>-0.01315773097439201</v>
       </c>
       <c r="E74">
-        <v>0.002087315337621752</v>
+        <v>0.0573039820109033</v>
       </c>
       <c r="F74">
-        <v>-0.06340167644759187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08349861510511367</v>
+      </c>
+      <c r="G74">
+        <v>-0.00934551646637566</v>
+      </c>
+      <c r="H74">
+        <v>0.01888361199895735</v>
+      </c>
+      <c r="I74">
+        <v>0.06652305194278782</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2274161033080914</v>
+        <v>-0.2431808137412395</v>
       </c>
       <c r="C75">
-        <v>0.07866749757509338</v>
+        <v>0.06390482475112792</v>
       </c>
       <c r="D75">
-        <v>-0.07146746393511207</v>
+        <v>0.005631614052848194</v>
       </c>
       <c r="E75">
-        <v>-0.01183247027931637</v>
+        <v>0.1241823248629417</v>
       </c>
       <c r="F75">
-        <v>-0.1404542836437574</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1478366783402078</v>
+      </c>
+      <c r="G75">
+        <v>0.02019323150383165</v>
+      </c>
+      <c r="H75">
+        <v>-0.005724105491262089</v>
+      </c>
+      <c r="I75">
+        <v>0.02265239889215772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2603828564090121</v>
+        <v>-0.2556847586031273</v>
       </c>
       <c r="C76">
-        <v>0.1012153760184932</v>
+        <v>0.04208275981525976</v>
       </c>
       <c r="D76">
-        <v>-0.03072261614797349</v>
+        <v>-0.02800650782335181</v>
       </c>
       <c r="E76">
-        <v>0.04319331460996768</v>
+        <v>0.1478787460040021</v>
       </c>
       <c r="F76">
-        <v>-0.1359991253813447</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1989412249635611</v>
+      </c>
+      <c r="G76">
+        <v>0.03005953789868746</v>
+      </c>
+      <c r="H76">
+        <v>0.07529426209841815</v>
+      </c>
+      <c r="I76">
+        <v>0.02800699071333178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1349968783025202</v>
+        <v>-0.1029724514649504</v>
       </c>
       <c r="C77">
-        <v>-0.05342419891431575</v>
+        <v>0.08204898349495048</v>
       </c>
       <c r="D77">
-        <v>-0.08685204764336642</v>
+        <v>-0.02903939643940666</v>
       </c>
       <c r="E77">
-        <v>0.0284012598812917</v>
+        <v>-0.03532556393072164</v>
       </c>
       <c r="F77">
-        <v>0.2134921466291558</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1681530894850863</v>
+      </c>
+      <c r="G77">
+        <v>0.2285623988276775</v>
+      </c>
+      <c r="H77">
+        <v>0.02336954338082071</v>
+      </c>
+      <c r="I77">
+        <v>0.2461598628228072</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.0799458601555882</v>
+        <v>-0.06021820071678578</v>
       </c>
       <c r="C78">
-        <v>-0.02237998731379106</v>
+        <v>0.06473065201774679</v>
       </c>
       <c r="D78">
-        <v>-0.08803894329031658</v>
+        <v>-0.03091080505488834</v>
       </c>
       <c r="E78">
-        <v>0.04230423929047943</v>
+        <v>0.02433278437897948</v>
       </c>
       <c r="F78">
-        <v>0.03501436950579772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.06989575295152514</v>
+      </c>
+      <c r="G78">
+        <v>0.02840178714525648</v>
+      </c>
+      <c r="H78">
+        <v>-0.02640227858529338</v>
+      </c>
+      <c r="I78">
+        <v>0.03549499293637549</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1319296082520785</v>
+        <v>-0.1491672597508263</v>
       </c>
       <c r="C80">
-        <v>-0.1137500302406685</v>
+        <v>-0.4184967552894113</v>
       </c>
       <c r="D80">
-        <v>0.4103333930794901</v>
+        <v>-0.8805944148932955</v>
       </c>
       <c r="E80">
-        <v>0.8730238902997435</v>
+        <v>-0.02594057714904466</v>
       </c>
       <c r="F80">
-        <v>0.02023736799181539</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06435100967213052</v>
+      </c>
+      <c r="G80">
+        <v>-0.05260679548640531</v>
+      </c>
+      <c r="H80">
+        <v>-0.0340806143647596</v>
+      </c>
+      <c r="I80">
+        <v>-0.086667866336918</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1642736889406959</v>
+        <v>-0.1805711179410373</v>
       </c>
       <c r="C81">
-        <v>0.0587189623840949</v>
+        <v>0.03657420811743115</v>
       </c>
       <c r="D81">
-        <v>-0.03342614244972946</v>
+        <v>-0.00904200570937121</v>
       </c>
       <c r="E81">
-        <v>0.008767346202291823</v>
+        <v>0.1017087157957694</v>
       </c>
       <c r="F81">
-        <v>-0.1538736116695085</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1484001079308644</v>
+      </c>
+      <c r="G81">
+        <v>0.04466660270680505</v>
+      </c>
+      <c r="H81">
+        <v>0.03471770033792133</v>
+      </c>
+      <c r="I81">
+        <v>0.005512016562348889</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06266643490777089</v>
+        <v>-0.05078784252716472</v>
       </c>
       <c r="C83">
-        <v>-0.05274825474890876</v>
+        <v>0.05333859170203151</v>
       </c>
       <c r="D83">
-        <v>-0.07487232446635311</v>
+        <v>-0.01198803329553252</v>
       </c>
       <c r="E83">
-        <v>0.006606760520165911</v>
+        <v>-0.01799018647427826</v>
       </c>
       <c r="F83">
-        <v>0.0206463444414185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04446843414292116</v>
+      </c>
+      <c r="G83">
+        <v>0.02810013350970138</v>
+      </c>
+      <c r="H83">
+        <v>-0.04478651803478904</v>
+      </c>
+      <c r="I83">
+        <v>0.03819492501307076</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2310818972735711</v>
+        <v>-0.2402012968888877</v>
       </c>
       <c r="C85">
-        <v>0.04090901187596614</v>
+        <v>0.08724075735177242</v>
       </c>
       <c r="D85">
-        <v>-0.06713440264644631</v>
+        <v>-0.02346965011780824</v>
       </c>
       <c r="E85">
-        <v>0.04304866388879006</v>
+        <v>0.1123547375523895</v>
       </c>
       <c r="F85">
-        <v>-0.1668979752687434</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1882944645499608</v>
+      </c>
+      <c r="G85">
+        <v>0.04201013432984492</v>
+      </c>
+      <c r="H85">
+        <v>0.01500150192946562</v>
+      </c>
+      <c r="I85">
+        <v>0.02821768627831641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02518413926219142</v>
+        <v>-0.02100750119310831</v>
       </c>
       <c r="C86">
-        <v>-0.005631527660996089</v>
+        <v>0.03801941882903011</v>
       </c>
       <c r="D86">
-        <v>-0.06628945894831115</v>
+        <v>-0.01279871264981854</v>
       </c>
       <c r="E86">
-        <v>0.01501423613666281</v>
+        <v>0.01568477384174344</v>
       </c>
       <c r="F86">
-        <v>0.08938863815102312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08863339526713282</v>
+      </c>
+      <c r="G86">
+        <v>0.05988221924674157</v>
+      </c>
+      <c r="H86">
+        <v>-0.01220965310912026</v>
+      </c>
+      <c r="I86">
+        <v>0.07048007880342011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01496310312705278</v>
+        <v>-0.02526350548913498</v>
       </c>
       <c r="C87">
-        <v>0.02187356777211111</v>
+        <v>-0.008556927516194055</v>
       </c>
       <c r="D87">
-        <v>0.03985262293038684</v>
+        <v>0.000582483964857146</v>
       </c>
       <c r="E87">
-        <v>-0.01507685049237021</v>
+        <v>-0.004638648686524857</v>
       </c>
       <c r="F87">
-        <v>0.1061209202581486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1079534763288801</v>
+      </c>
+      <c r="G87">
+        <v>0.009921321092465194</v>
+      </c>
+      <c r="H87">
+        <v>0.01115826000673059</v>
+      </c>
+      <c r="I87">
+        <v>0.05500458487684517</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01766337308993701</v>
+        <v>-0.03183045247498367</v>
       </c>
       <c r="C88">
-        <v>0.009734527379313495</v>
+        <v>-0.008206833227040094</v>
       </c>
       <c r="D88">
-        <v>0.006331576272846588</v>
+        <v>-0.0003487959460528329</v>
       </c>
       <c r="E88">
-        <v>0.01776142595281734</v>
+        <v>0.0065810212018377</v>
       </c>
       <c r="F88">
-        <v>-0.005292688586322824</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.004276050185774581</v>
+      </c>
+      <c r="G88">
+        <v>0.0006500279699083969</v>
+      </c>
+      <c r="H88">
+        <v>-0.05549128356627112</v>
+      </c>
+      <c r="I88">
+        <v>0.005226627951142945</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.1065765908921557</v>
+        <v>-0.1460957040130872</v>
       </c>
       <c r="C89">
-        <v>0.1043278616442925</v>
+        <v>-0.3197432944773236</v>
       </c>
       <c r="D89">
-        <v>0.2902220481700338</v>
+        <v>0.1956455042986948</v>
       </c>
       <c r="E89">
-        <v>-0.1674012920635377</v>
+        <v>-0.1012581621371434</v>
       </c>
       <c r="F89">
-        <v>0.04822536746656425</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02590136099144728</v>
+      </c>
+      <c r="G89">
+        <v>0.09787697311565316</v>
+      </c>
+      <c r="H89">
+        <v>-0.02361246823014393</v>
+      </c>
+      <c r="I89">
+        <v>0.04842147188171818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.08663744579278385</v>
+        <v>-0.1019648062320025</v>
       </c>
       <c r="C90">
-        <v>0.09729715575228216</v>
+        <v>-0.2807743761297383</v>
       </c>
       <c r="D90">
-        <v>0.2749133576573875</v>
+        <v>0.149925777536904</v>
       </c>
       <c r="E90">
-        <v>-0.09889067524814089</v>
+        <v>-0.08655761467724317</v>
       </c>
       <c r="F90">
-        <v>0.05047898006838802</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.00214246428388778</v>
+      </c>
+      <c r="G90">
+        <v>0.08268760738283443</v>
+      </c>
+      <c r="H90">
+        <v>-0.01052395171974939</v>
+      </c>
+      <c r="I90">
+        <v>0.009245349879991923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2885585150037431</v>
+        <v>-0.2824507996908238</v>
       </c>
       <c r="C91">
-        <v>0.05401955449858772</v>
+        <v>0.09712229280372925</v>
       </c>
       <c r="D91">
-        <v>-0.0842053684477764</v>
+        <v>-0.0216748827769499</v>
       </c>
       <c r="E91">
-        <v>0.03175583467657292</v>
+        <v>0.1176180237188211</v>
       </c>
       <c r="F91">
-        <v>-0.2469379907555677</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2602287913238184</v>
+      </c>
+      <c r="G91">
+        <v>0.05533243719583627</v>
+      </c>
+      <c r="H91">
+        <v>0.05892400590144659</v>
+      </c>
+      <c r="I91">
+        <v>0.02981317106693961</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1179749275905534</v>
+        <v>-0.1818226797223336</v>
       </c>
       <c r="C92">
-        <v>0.04921127375255289</v>
+        <v>-0.2995845727679265</v>
       </c>
       <c r="D92">
-        <v>0.3358901189757784</v>
+        <v>0.1410834433286327</v>
       </c>
       <c r="E92">
-        <v>-0.1113920054294878</v>
+        <v>-0.1248929748763498</v>
       </c>
       <c r="F92">
-        <v>-0.01744174329270498</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09241298371713864</v>
+      </c>
+      <c r="G92">
+        <v>0.2163102613328155</v>
+      </c>
+      <c r="H92">
+        <v>-0.04428542815290577</v>
+      </c>
+      <c r="I92">
+        <v>-0.05103431984554836</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.09211407262006822</v>
+        <v>-0.1295737148720363</v>
       </c>
       <c r="C93">
-        <v>0.1018268357937914</v>
+        <v>-0.331944996693512</v>
       </c>
       <c r="D93">
-        <v>0.3392906783125147</v>
+        <v>0.1881152676916034</v>
       </c>
       <c r="E93">
-        <v>-0.1414131205862321</v>
+        <v>-0.1317829240416804</v>
       </c>
       <c r="F93">
-        <v>-0.01924436326632322</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03040819300582225</v>
+      </c>
+      <c r="G93">
+        <v>0.02631302390536413</v>
+      </c>
+      <c r="H93">
+        <v>-0.0481243761907227</v>
+      </c>
+      <c r="I93">
+        <v>-0.03324291881846798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2760936170438318</v>
+        <v>-0.3006817422982212</v>
       </c>
       <c r="C94">
-        <v>0.08728107132626682</v>
+        <v>0.03389264316435269</v>
       </c>
       <c r="D94">
-        <v>0.02565156289143992</v>
+        <v>0.02524799535608742</v>
       </c>
       <c r="E94">
-        <v>-0.01200624764951699</v>
+        <v>0.1252703458496576</v>
       </c>
       <c r="F94">
-        <v>-0.2071017969371938</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.271907372096378</v>
+      </c>
+      <c r="G94">
+        <v>0.08244264733534816</v>
+      </c>
+      <c r="H94">
+        <v>0.2061788630909137</v>
+      </c>
+      <c r="I94">
+        <v>0.03090968379922464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1605637144632271</v>
+        <v>-0.1296859793240376</v>
       </c>
       <c r="C95">
-        <v>-0.01592351513542465</v>
+        <v>0.1142203604773644</v>
       </c>
       <c r="D95">
-        <v>-0.1815775760979621</v>
+        <v>0.041618343632227</v>
       </c>
       <c r="E95">
-        <v>-0.008933540797199643</v>
+        <v>0.03788196167680896</v>
       </c>
       <c r="F95">
-        <v>-0.4853828511698669</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07196204467351412</v>
+      </c>
+      <c r="G95">
+        <v>-0.03044043369678323</v>
+      </c>
+      <c r="H95">
+        <v>-0.8860644563243135</v>
+      </c>
+      <c r="I95">
+        <v>-0.3080584980471496</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2163825298322047</v>
+        <v>-0.2220234898048869</v>
       </c>
       <c r="C98">
-        <v>0.03210018540608636</v>
+        <v>0.003220648130859845</v>
       </c>
       <c r="D98">
-        <v>0.01888801141213101</v>
+        <v>0.07353887347307839</v>
       </c>
       <c r="E98">
-        <v>-0.09298051453816822</v>
+        <v>-0.02289579347581826</v>
       </c>
       <c r="F98">
-        <v>0.06792186086413604</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.180320093031553</v>
+      </c>
+      <c r="G98">
+        <v>-0.3886744723579222</v>
+      </c>
+      <c r="H98">
+        <v>0.03668941190337845</v>
+      </c>
+      <c r="I98">
+        <v>-0.03041780643846485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.007006634223618842</v>
+        <v>-0.01528136558262449</v>
       </c>
       <c r="C101">
-        <v>0.02439175216551962</v>
+        <v>0.02403459357364903</v>
       </c>
       <c r="D101">
-        <v>-0.06716904089256638</v>
+        <v>-0.01403390046651854</v>
       </c>
       <c r="E101">
-        <v>0.03867084773782756</v>
+        <v>0.04000324430656597</v>
       </c>
       <c r="F101">
-        <v>0.02464463562073502</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0794884423720327</v>
+      </c>
+      <c r="G101">
+        <v>0.1092803239458166</v>
+      </c>
+      <c r="H101">
+        <v>0.005060506441362043</v>
+      </c>
+      <c r="I101">
+        <v>-0.1228811182685639</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1003499978830425</v>
+        <v>-0.1154727403945686</v>
       </c>
       <c r="C102">
-        <v>0.02849912742281957</v>
+        <v>0.03762742633020526</v>
       </c>
       <c r="D102">
-        <v>-0.04573166843916426</v>
+        <v>-0.01795881581477899</v>
       </c>
       <c r="E102">
-        <v>0.03550358136247962</v>
+        <v>0.05994140318739605</v>
       </c>
       <c r="F102">
-        <v>-0.09382253598350251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1093364442404198</v>
+      </c>
+      <c r="G102">
+        <v>0.02135927975027472</v>
+      </c>
+      <c r="H102">
+        <v>0.006980644917621073</v>
+      </c>
+      <c r="I102">
+        <v>0.02882667396388184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02314692017644234</v>
+        <v>-0.02782617447396735</v>
       </c>
       <c r="C103">
-        <v>0.01248030856776809</v>
+        <v>0.005949427857532621</v>
       </c>
       <c r="D103">
-        <v>-0.006875811626558424</v>
+        <v>-0.01107966423304184</v>
       </c>
       <c r="E103">
-        <v>0.004846346157535331</v>
+        <v>0.01954155780054949</v>
       </c>
       <c r="F103">
-        <v>-0.02136983732003356</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01782474810624404</v>
+      </c>
+      <c r="G103">
+        <v>0.01786599031315253</v>
+      </c>
+      <c r="H103">
+        <v>-0.008457169382282319</v>
+      </c>
+      <c r="I103">
+        <v>0.01488845918872148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
